--- a/Report Document/Chart/COMP3111Team55BurndownChart.xlsx
+++ b/Report Document/Chart/COMP3111Team55BurndownChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc7b01f9832c25b8/文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/wyloan_connect_ust_hk/Documents/COMP3111_Team55/GanttChart_BurndownChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F66968-27D4-4239-9460-EEC40250E58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="566" documentId="13_ncr:1_{E7E00621-0910-48D1-9298-58F1641F7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A71F784-F56A-4045-BEB6-69A9F9CD7144}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Job Catalogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Function D - Unit Testing with Converage Report</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -331,11 +334,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,9 +432,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +454,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,9 +633,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data &amp; Chart'!$B$19:$J$19</c:f>
+              <c:f>'Data &amp; Chart'!$B$19:$K$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -598,46 +662,52 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Week 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data &amp; Chart'!$B$20:$J$20</c:f>
+              <c:f>'Data &amp; Chart'!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9312500000000004</c:v>
+                  <c:v>7.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35B7-4010-BB8B-BED9E6A51369}"/>
+              <c16:uniqueId val="{00000000-0F03-4F0E-9613-B704E065116F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,9 +766,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data &amp; Chart'!$B$19:$J$19</c:f>
+              <c:f>'Data &amp; Chart'!$B$19:$K$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -725,16 +795,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Week 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data &amp; Chart'!$B$21:$J$21</c:f>
+              <c:f>'Data &amp; Chart'!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>6.8000000000000007</c:v>
                 </c:pt>
@@ -751,20 +824,23 @@
                   <c:v>13.14</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>17.64</c:v>
+                  <c:v>15.64</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>9.64</c:v>
+                  <c:v>10.64</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>8.17</c:v>
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35B7-4010-BB8B-BED9E6A51369}"/>
+              <c16:uniqueId val="{00000001-0F03-4F0E-9613-B704E065116F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,8 +854,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="873734256"/>
-        <c:axId val="1454133248"/>
+        <c:axId val="530168288"/>
+        <c:axId val="1425285632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -860,9 +936,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Data &amp; Chart'!$B$19:$J$19</c:f>
+              <c:f>'Data &amp; Chart'!$B$19:$K$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -889,16 +965,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Week 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data &amp; Chart'!$B$22:$J$22</c:f>
+              <c:f>'Data &amp; Chart'!$B$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>63.45</c:v>
                 </c:pt>
@@ -918,12 +997,15 @@
                   <c:v>35.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.810000000000002</c:v>
+                  <c:v>19.810000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>8.1700000000000017</c:v>
+                  <c:v>9.1700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00">
+                  <c:v>3.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -932,7 +1014,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35B7-4010-BB8B-BED9E6A51369}"/>
+              <c16:uniqueId val="{00000002-0F03-4F0E-9613-B704E065116F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,9 +1094,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Data &amp; Chart'!$B$19:$J$19</c:f>
+              <c:f>'Data &amp; Chart'!$B$19:$K$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -1041,42 +1123,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Week 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data &amp; Chart'!$B$23:$J$23</c:f>
+              <c:f>'Data &amp; Chart'!$B$23:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>63.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.518750000000004</c:v>
+                  <c:v>56.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.587500000000006</c:v>
+                  <c:v>49.350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.656250000000007</c:v>
+                  <c:v>42.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.725000000000009</c:v>
+                  <c:v>35.250000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.79375000000001</c:v>
+                  <c:v>28.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.86250000000001</c:v>
+                  <c:v>21.150000000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9312500000000092</c:v>
+                  <c:v>14.100000000000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8817841970012523E-15</c:v>
+                  <c:v>7.0500000000000114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0658141036401503E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1172,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-35B7-4010-BB8B-BED9E6A51369}"/>
+              <c16:uniqueId val="{00000003-0F03-4F0E-9613-B704E065116F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1098,11 +1186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="873734256"/>
-        <c:axId val="1454133248"/>
+        <c:axId val="530168288"/>
+        <c:axId val="1425285632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="873734256"/>
+        <c:axId val="530168288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1232,7 @@
             <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1454133248"/>
+        <c:crossAx val="1425285632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1454133248"/>
+        <c:axId val="1425285632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1290,7 @@
             <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873734256"/>
+        <c:crossAx val="530168288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1858,21 +1946,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103070</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>978078</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>60390</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>974913</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4D0EA8-F2EC-727E-904C-2A74C02258E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1208D228-3D70-5506-82B4-273007C4A499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,6 +1979,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2190,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23A665-88C7-4222-B918-AB1BED6AEF55}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2208,13 +2300,13 @@
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2253,14 +2345,17 @@
         <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5">
@@ -2296,14 +2391,17 @@
       <c r="M2" s="7">
         <v>0</v>
       </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:N6" si="0">E2-(SUM(F2:M2))</f>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <f>E2-(SUM(F2:N2))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2">
         <v>112</v>
       </c>
@@ -2338,13 +2436,16 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f>E3-(SUM(F3:N3))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="5">
@@ -2380,14 +2481,17 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" si="0"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <f>E4-(SUM(F4:N4))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2">
         <v>122</v>
       </c>
@@ -2422,15 +2526,18 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>E5-(SUM(F5:N5))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="9">
@@ -2467,13 +2574,16 @@
         <v>0</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f>E6-(SUM(F6:N6))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2">
         <v>212</v>
       </c>
@@ -2505,16 +2615,19 @@
         <v>0.06</v>
       </c>
       <c r="M7" s="2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7" s="2">
-        <f>E7-(SUM(F7:M7))</f>
+        <v>0.06</v>
+      </c>
+      <c r="O7" s="5">
+        <f>E7-(SUM(F7:N7))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="18"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="9">
         <v>213</v>
       </c>
@@ -2542,20 +2655,23 @@
       <c r="K8" s="9">
         <v>0.08</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="25">
         <v>0.08</v>
       </c>
       <c r="M8" s="9">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" ref="N8:N17" si="1">E8-(SUM(F8:M8))</f>
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="5">
+        <f>E8-(SUM(F8:N8))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2">
         <v>214</v>
       </c>
@@ -2580,23 +2696,26 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
         <v>0.2</v>
       </c>
       <c r="N9" s="2">
-        <f>E9-(SUM(F9:M9))</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f>E9-(SUM(F9:N9))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9">
         <v>215</v>
       </c>
@@ -2624,20 +2743,23 @@
       <c r="K10" s="9">
         <v>0</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>0</v>
       </c>
       <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>0.5</v>
       </c>
-      <c r="N10" s="9">
-        <f>E10-(SUM(F10:M10))</f>
+      <c r="O10" s="5">
+        <f>E10-(SUM(F10:N10))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="2">
         <v>216</v>
       </c>
@@ -2672,13 +2794,16 @@
         <v>0.25</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f>E11-(SUM(F11:N11))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="9">
@@ -2706,22 +2831,25 @@
         <v>0</v>
       </c>
       <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>2</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>1</v>
       </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
       <c r="N12" s="9">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f>E12-(SUM(F12:N12))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2">
         <v>222</v>
       </c>
@@ -2753,16 +2881,19 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
         <v>3</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="1"/>
+      <c r="O13" s="5">
+        <f>E13-(SUM(F13:N13))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="9">
@@ -2799,13 +2930,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f>E14-(SUM(F14:N14))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2">
         <v>232</v>
       </c>
@@ -2840,13 +2974,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f>E15-(SUM(F15:N15))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="9">
         <v>233</v>
       </c>
@@ -2881,13 +3018,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f>E16-(SUM(F16:N16))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2">
         <v>234</v>
       </c>
@@ -2922,11 +3062,14 @@
         <v>4</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f>E17-(SUM(F17:N17))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2941,8 +3084,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
@@ -2973,93 +3117,105 @@
       <c r="J19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13">
-        <f>SUM($E$2:$E$17)/8</f>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" ref="D20:J20" si="2">SUM($E$2:$E$17)/8</f>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" si="2"/>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="2"/>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="2"/>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="2"/>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="2"/>
-        <v>7.9312500000000004</v>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" si="2"/>
-        <v>7.9312500000000004</v>
-      </c>
-      <c r="K20" s="1"/>
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="K20" s="13">
+        <f>SUM($E$2:$E$17)/9</f>
+        <v>7.0500000000000007</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="11">
-        <f>SUM(F2:F17)</f>
+        <f t="shared" ref="C21:J21" si="0">SUM(F2:F17)</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="D21" s="11">
-        <f>SUM(G2:G17)</f>
+        <f t="shared" si="0"/>
         <v>7.78</v>
       </c>
       <c r="E21" s="2">
-        <f>SUM(H2:H17)</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="F21" s="2">
-        <f>SUM(I2:I17)</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="G21" s="2">
-        <f>SUM(J2:J17)</f>
+        <f t="shared" si="0"/>
         <v>13.14</v>
       </c>
       <c r="H21" s="2">
-        <f>SUM(K2:K17)</f>
-        <v>17.64</v>
+        <f t="shared" si="0"/>
+        <v>15.64</v>
       </c>
       <c r="I21" s="2">
-        <f>SUM(L2:L17)</f>
-        <v>9.64</v>
+        <f t="shared" si="0"/>
+        <v>10.64</v>
       </c>
       <c r="J21" s="2">
-        <f>SUM(M2:M17)</f>
-        <v>8.17</v>
+        <f t="shared" si="0"/>
+        <v>5.57</v>
+      </c>
+      <c r="K21" s="2">
+        <f>SUM(N2:N17)</f>
+        <v>3.6</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
@@ -3072,37 +3228,42 @@
         <v>56.650000000000006</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" ref="D22:J22" si="3">C22-D21</f>
+        <f t="shared" ref="D22:J22" si="1">C22-D21</f>
         <v>48.870000000000005</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48.730000000000004</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48.59</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35.450000000000003</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="3"/>
-        <v>17.810000000000002</v>
+        <f t="shared" si="1"/>
+        <v>19.810000000000002</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="3"/>
-        <v>8.1700000000000017</v>
+        <f t="shared" si="1"/>
+        <v>9.1700000000000017</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="K22" s="13">
+        <f>J22-K21</f>
         <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -3112,53 +3273,60 @@
       </c>
       <c r="C23" s="11">
         <f>B23-C20</f>
-        <v>55.518750000000004</v>
+        <v>56.400000000000006</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:J23" si="4">C23-D20</f>
-        <v>47.587500000000006</v>
+        <f t="shared" ref="D23:J23" si="2">C23-D20</f>
+        <v>49.350000000000009</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="4"/>
-        <v>39.656250000000007</v>
+        <f t="shared" si="2"/>
+        <v>42.300000000000011</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="4"/>
-        <v>31.725000000000009</v>
+        <f t="shared" si="2"/>
+        <v>35.250000000000014</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="4"/>
-        <v>23.79375000000001</v>
+        <f t="shared" si="2"/>
+        <v>28.200000000000014</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="4"/>
-        <v>15.86250000000001</v>
+        <f t="shared" si="2"/>
+        <v>21.150000000000013</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="4"/>
-        <v>7.9312500000000092</v>
+        <f t="shared" si="2"/>
+        <v>14.100000000000012</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="4"/>
-        <v>8.8817841970012523E-15</v>
+        <f t="shared" si="2"/>
+        <v>7.0500000000000114</v>
+      </c>
+      <c r="K23" s="11">
+        <f>J23-K20</f>
+        <v>1.0658141036401503E-14</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="N25" s="1"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="N26" s="1"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
